--- a/files/工资条发送/工资条.xlsx
+++ b/files/工资条发送/工资条.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D45979-B59C-4FC2-ABF8-7BCD76AE48FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4397405-3400-4B53-8253-ABA110A77116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="  工资" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王志彦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,28 +153,11 @@
     <t>周15</t>
   </si>
   <si>
-    <t>zhouwx1@windit.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhouwx2@windit.com.cn</t>
-  </si>
-  <si>
-    <t>zhouwx3@windit.com.cn</t>
-  </si>
-  <si>
-    <t>zhouwx4@windit.com.cn</t>
-  </si>
-  <si>
     <t>周17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhou1t@windit.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,19 +494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="25" max="25" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,40 +545,37 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <f>Sheet1!B4+500</f>
@@ -644,49 +625,46 @@
         <f>Sheet1!M4+500</f>
         <v>1200</v>
       </c>
-      <c r="O2">
+      <c r="N2">
         <f>Sheet1!N4+500</f>
         <v>1201</v>
       </c>
-      <c r="Q2">
+      <c r="O2">
         <f>Sheet1!O4+500</f>
         <v>1202</v>
       </c>
-      <c r="R2">
+      <c r="P2">
         <f>Sheet1!P4+500</f>
         <v>1203</v>
       </c>
-      <c r="S2">
+      <c r="Q2">
         <f>Sheet1!Q4+500</f>
         <v>1204</v>
       </c>
-      <c r="T2">
+      <c r="R2">
         <f>Sheet1!R4+500</f>
         <v>1205</v>
       </c>
-      <c r="U2">
+      <c r="S2">
         <f>Sheet1!S4+500</f>
         <v>1206</v>
       </c>
-      <c r="V2">
+      <c r="T2">
         <f>Sheet1!T4+500</f>
         <v>1207</v>
       </c>
-      <c r="W2">
+      <c r="U2">
         <f>Sheet1!U4+500</f>
         <v>1208</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:X7" si="0">SUM(B2:W2)</f>
+      <c r="V2">
+        <f t="shared" ref="V2:V7" si="0">SUM(B2:U2)</f>
         <v>23970</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <f>Sheet1!B5+500</f>
@@ -736,49 +714,46 @@
         <f>Sheet1!M5+500</f>
         <v>500</v>
       </c>
+      <c r="N3">
+        <f>Sheet1!N5+500</f>
+        <v>500</v>
+      </c>
       <c r="O3">
-        <f>Sheet1!N5+500</f>
+        <f>Sheet1!O5+500</f>
+        <v>500</v>
+      </c>
+      <c r="P3">
+        <f>Sheet1!P5+500</f>
         <v>500</v>
       </c>
       <c r="Q3">
-        <f>Sheet1!O5+500</f>
+        <f>Sheet1!Q5+500</f>
         <v>500</v>
       </c>
       <c r="R3">
-        <f>Sheet1!P5+500</f>
+        <f>Sheet1!R5+500</f>
         <v>500</v>
       </c>
       <c r="S3">
-        <f>Sheet1!Q5+500</f>
+        <f>Sheet1!S5+500</f>
         <v>500</v>
       </c>
       <c r="T3">
-        <f>Sheet1!R5+500</f>
+        <f>Sheet1!T5+500</f>
         <v>500</v>
       </c>
       <c r="U3">
-        <f>Sheet1!S5+500</f>
+        <f>Sheet1!U5+500</f>
         <v>500</v>
       </c>
       <c r="V3">
-        <f>Sheet1!T5+500</f>
-        <v>500</v>
-      </c>
-      <c r="W3">
-        <f>Sheet1!U5+500</f>
-        <v>500</v>
-      </c>
-      <c r="X3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <f>Sheet1!B6+500</f>
@@ -828,49 +803,46 @@
         <f>Sheet1!M6+500</f>
         <v>500</v>
       </c>
+      <c r="N4">
+        <f>Sheet1!N6+500</f>
+        <v>500</v>
+      </c>
       <c r="O4">
-        <f>Sheet1!N6+500</f>
+        <f>Sheet1!O6+500</f>
+        <v>500</v>
+      </c>
+      <c r="P4">
+        <f>Sheet1!P6+500</f>
         <v>500</v>
       </c>
       <c r="Q4">
-        <f>Sheet1!O6+500</f>
+        <f>Sheet1!Q6+500</f>
         <v>500</v>
       </c>
       <c r="R4">
-        <f>Sheet1!P6+500</f>
+        <f>Sheet1!R6+500</f>
         <v>500</v>
       </c>
       <c r="S4">
-        <f>Sheet1!Q6+500</f>
+        <f>Sheet1!S6+500</f>
         <v>500</v>
       </c>
       <c r="T4">
-        <f>Sheet1!R6+500</f>
+        <f>Sheet1!T6+500</f>
         <v>500</v>
       </c>
       <c r="U4">
-        <f>Sheet1!S6+500</f>
+        <f>Sheet1!U6+500</f>
         <v>500</v>
       </c>
       <c r="V4">
-        <f>Sheet1!T6+500</f>
-        <v>500</v>
-      </c>
-      <c r="W4">
-        <f>Sheet1!U6+500</f>
-        <v>500</v>
-      </c>
-      <c r="X4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <f>Sheet1!B7+500</f>
@@ -920,49 +892,46 @@
         <f>Sheet1!M7+500</f>
         <v>500</v>
       </c>
+      <c r="N5">
+        <f>Sheet1!N7+500</f>
+        <v>500</v>
+      </c>
       <c r="O5">
-        <f>Sheet1!N7+500</f>
+        <f>Sheet1!O7+500</f>
+        <v>500</v>
+      </c>
+      <c r="P5">
+        <f>Sheet1!P7+500</f>
         <v>500</v>
       </c>
       <c r="Q5">
-        <f>Sheet1!O7+500</f>
+        <f>Sheet1!Q7+500</f>
         <v>500</v>
       </c>
       <c r="R5">
-        <f>Sheet1!P7+500</f>
+        <f>Sheet1!R7+500</f>
         <v>500</v>
       </c>
       <c r="S5">
-        <f>Sheet1!Q7+500</f>
+        <f>Sheet1!S7+500</f>
         <v>500</v>
       </c>
       <c r="T5">
-        <f>Sheet1!R7+500</f>
+        <f>Sheet1!T7+500</f>
         <v>500</v>
       </c>
       <c r="U5">
-        <f>Sheet1!S7+500</f>
+        <f>Sheet1!U7+500</f>
         <v>500</v>
       </c>
       <c r="V5">
-        <f>Sheet1!T7+500</f>
-        <v>500</v>
-      </c>
-      <c r="W5">
-        <f>Sheet1!U7+500</f>
-        <v>500</v>
-      </c>
-      <c r="X5">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <f>Sheet1!B8+500</f>
@@ -1012,49 +981,46 @@
         <f>Sheet1!M8+500</f>
         <v>500</v>
       </c>
+      <c r="N6">
+        <f>Sheet1!N8+500</f>
+        <v>500</v>
+      </c>
       <c r="O6">
-        <f>Sheet1!N8+500</f>
+        <f>Sheet1!O8+500</f>
+        <v>500</v>
+      </c>
+      <c r="P6">
+        <f>Sheet1!P8+500</f>
         <v>500</v>
       </c>
       <c r="Q6">
-        <f>Sheet1!O8+500</f>
+        <f>Sheet1!Q8+500</f>
         <v>500</v>
       </c>
       <c r="R6">
-        <f>Sheet1!P8+500</f>
+        <f>Sheet1!R8+500</f>
         <v>500</v>
       </c>
       <c r="S6">
-        <f>Sheet1!Q8+500</f>
+        <f>Sheet1!S8+500</f>
         <v>500</v>
       </c>
       <c r="T6">
-        <f>Sheet1!R8+500</f>
+        <f>Sheet1!T8+500</f>
         <v>500</v>
       </c>
       <c r="U6">
-        <f>Sheet1!S8+500</f>
+        <f>Sheet1!U8+500</f>
         <v>500</v>
       </c>
       <c r="V6">
-        <f>Sheet1!T8+500</f>
-        <v>500</v>
-      </c>
-      <c r="W6">
-        <f>Sheet1!U8+500</f>
-        <v>500</v>
-      </c>
-      <c r="X6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <f>Sheet1!B10+500</f>
@@ -1104,59 +1070,47 @@
         <f>Sheet1!M10+500</f>
         <v>500</v>
       </c>
+      <c r="N7">
+        <f>Sheet1!N10+500</f>
+        <v>500</v>
+      </c>
       <c r="O7">
-        <f>Sheet1!N10+500</f>
+        <f>Sheet1!O10+500</f>
+        <v>500</v>
+      </c>
+      <c r="P7">
+        <f>Sheet1!P10+500</f>
         <v>500</v>
       </c>
       <c r="Q7">
-        <f>Sheet1!O10+500</f>
+        <f>Sheet1!Q10+500</f>
         <v>500</v>
       </c>
       <c r="R7">
-        <f>Sheet1!P10+500</f>
+        <f>Sheet1!R10+500</f>
         <v>500</v>
       </c>
       <c r="S7">
-        <f>Sheet1!Q10+500</f>
+        <f>Sheet1!S10+500</f>
         <v>500</v>
       </c>
       <c r="T7">
-        <f>Sheet1!R10+500</f>
+        <f>Sheet1!T10+500</f>
         <v>500</v>
       </c>
       <c r="U7">
-        <f>Sheet1!S10+500</f>
+        <f>Sheet1!U10+500</f>
         <v>500</v>
       </c>
       <c r="V7">
-        <f>Sheet1!T10+500</f>
-        <v>500</v>
-      </c>
-      <c r="W7">
-        <f>Sheet1!U10+500</f>
-        <v>500</v>
-      </c>
-      <c r="X7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Y8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{63F0CD66-1312-4EF8-9FD1-5FCFE9458610}"/>
-    <hyperlink ref="Y3" r:id="rId2" xr:uid="{2B44ABC3-1B05-4AFB-BCC2-CAE767700FDD}"/>
-    <hyperlink ref="Y4:Y7" r:id="rId3" display="zhouwx1@windit.com.cn" xr:uid="{573C1224-3740-4EEA-A7B8-B9F194089A52}"/>
-    <hyperlink ref="Y7" r:id="rId4" display="zhouwx1@windit.com.cn" xr:uid="{D663191B-446E-436D-A7B2-32070820A303}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1168,9 +1122,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1231</v>
       </c>
@@ -1232,7 +1186,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>456</v>
       </c>
@@ -1294,7 +1248,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>689</v>
       </c>
@@ -1356,9 +1310,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <f>Sheet1!B2</f>
@@ -1445,12 +1399,12 @@
         <v>24810</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <f>Sheet1!B3</f>
@@ -1537,12 +1491,12 @@
         <v>9310</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <f>Sheet1!B4</f>
@@ -1629,7 +1583,7 @@
         <v>13970</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/files/工资条发送/工资条.xlsx
+++ b/files/工资条发送/工资条.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4397405-3400-4B53-8253-ABA110A77116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2703B-640B-4A58-96D0-9F99C78E3651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周11</t>
+    <t>周11、周12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/files/工资条发送/工资条.xlsx
+++ b/files/工资条发送/工资条.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE2703B-640B-4A58-96D0-9F99C78E3651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9446F70-A51C-46F6-8A9E-C7225DCB0734}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="  工资" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,18 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -662,7 +656,7 @@
         <v>23970</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -751,7 +745,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -840,7 +834,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -929,7 +923,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1104,6 +1098,95 @@
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f>Sheet1!B11+500</f>
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!C11+500</f>
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <f>Sheet1!D11+500</f>
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <f>Sheet1!E11+500</f>
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!F11+500</f>
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <f>Sheet1!G11+500</f>
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <f>Sheet1!H11+500</f>
+        <v>500</v>
+      </c>
+      <c r="I8">
+        <f>Sheet1!I11+500</f>
+        <v>500</v>
+      </c>
+      <c r="J8">
+        <f>Sheet1!J11+500</f>
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <f>Sheet1!K11+500</f>
+        <v>500</v>
+      </c>
+      <c r="L8">
+        <f>Sheet1!L11+500</f>
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <f>Sheet1!M11+500</f>
+        <v>500</v>
+      </c>
+      <c r="N8">
+        <f>Sheet1!N11+500</f>
+        <v>500</v>
+      </c>
+      <c r="O8">
+        <f>Sheet1!O11+500</f>
+        <v>500</v>
+      </c>
+      <c r="P8">
+        <f>Sheet1!P11+500</f>
+        <v>500</v>
+      </c>
+      <c r="Q8">
+        <f>Sheet1!Q11+500</f>
+        <v>500</v>
+      </c>
+      <c r="R8">
+        <f>Sheet1!R11+500</f>
+        <v>500</v>
+      </c>
+      <c r="S8">
+        <f>Sheet1!S11+500</f>
+        <v>500</v>
+      </c>
+      <c r="T8">
+        <f>Sheet1!T11+500</f>
+        <v>500</v>
+      </c>
+      <c r="U8">
+        <f>Sheet1!U11+500</f>
+        <v>500</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8" si="1">SUM(B8:U8)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1122,9 +1205,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1231</v>
       </c>
@@ -1186,7 +1269,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>456</v>
       </c>
@@ -1248,7 +1331,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>689</v>
       </c>
@@ -1310,7 +1393,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +1485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1494,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>24</v>
       </c>
